--- a/teaching/traditional_assets/database/data/austria/austria_utility_general.xlsx
+++ b/teaching/traditional_assets/database/data/austria/austria_utility_general.xlsx
@@ -591,28 +591,28 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.036</v>
+        <v>0.0459</v>
       </c>
       <c r="K2">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="M2">
-        <v>10.62</v>
+        <v>10.71</v>
       </c>
       <c r="N2">
-        <v>0.0399548532731377</v>
+        <v>0.03536988110964333</v>
       </c>
       <c r="O2">
-        <v>0.9925233644859814</v>
+        <v>0.9477876106194689</v>
       </c>
       <c r="P2">
-        <v>10.62</v>
+        <v>10.71</v>
       </c>
       <c r="Q2">
-        <v>0.0399548532731377</v>
+        <v>0.03536988110964333</v>
       </c>
       <c r="R2">
-        <v>0.9925233644859814</v>
+        <v>0.9477876106194689</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -621,64 +621,64 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="V2">
-        <v>4.890895410082769e-05</v>
+        <v>3.632760898282695e-05</v>
       </c>
       <c r="W2">
-        <v>0.1154261057173678</v>
+        <v>0.1258351893095769</v>
       </c>
       <c r="X2">
-        <v>0.0423538132381496</v>
+        <v>0.03429489876294754</v>
       </c>
       <c r="Y2">
-        <v>0.07307229247921825</v>
+        <v>0.09154029054662931</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.002729881956882971</v>
+        <v>-0.002937972468887202</v>
       </c>
       <c r="AB2">
-        <v>0.0423538132381496</v>
+        <v>0.03421827093924794</v>
       </c>
       <c r="AC2">
-        <v>-0.04508369519503257</v>
+        <v>-0.03715624340813514</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG2">
-        <v>-0.013</v>
+        <v>1.339</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.004438599375308236</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01502504173622705</v>
       </c>
       <c r="AJ2">
-        <v>-4.891134630361905e-05</v>
+        <v>0.004402592235786927</v>
       </c>
       <c r="AK2">
-        <v>-0.0001489339764226059</v>
+        <v>0.01490444016518439</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-10.9</v>
+        <v>-11.5</v>
       </c>
       <c r="AQ2">
-        <v>0.02321100917431193</v>
+        <v>0.02321739130434783</v>
       </c>
     </row>
     <row r="3">
@@ -698,28 +698,28 @@
         </is>
       </c>
       <c r="E3">
-        <v>0.036</v>
+        <v>0.0459</v>
       </c>
       <c r="K3">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="M3">
-        <v>10.62</v>
+        <v>10.71</v>
       </c>
       <c r="N3">
-        <v>0.0399548532731377</v>
+        <v>0.03536988110964333</v>
       </c>
       <c r="O3">
-        <v>0.9925233644859814</v>
+        <v>0.9477876106194689</v>
       </c>
       <c r="P3">
-        <v>10.62</v>
+        <v>10.71</v>
       </c>
       <c r="Q3">
-        <v>0.0399548532731377</v>
+        <v>0.03536988110964333</v>
       </c>
       <c r="R3">
-        <v>0.9925233644859814</v>
+        <v>0.9477876106194689</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -728,64 +728,64 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="V3">
-        <v>4.890895410082769e-05</v>
+        <v>3.632760898282695e-05</v>
       </c>
       <c r="W3">
-        <v>0.1154261057173678</v>
+        <v>0.1258351893095769</v>
       </c>
       <c r="X3">
-        <v>0.0423538132381496</v>
+        <v>0.03429489876294754</v>
       </c>
       <c r="Y3">
-        <v>0.07307229247921825</v>
+        <v>0.09154029054662931</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.002729881956882971</v>
+        <v>-0.002937972468887202</v>
       </c>
       <c r="AB3">
-        <v>0.0423538132381496</v>
+        <v>0.03421827093924794</v>
       </c>
       <c r="AC3">
-        <v>-0.04508369519503257</v>
+        <v>-0.03715624340813514</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG3">
-        <v>-0.013</v>
+        <v>1.339</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.004438599375308236</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.01502504173622705</v>
       </c>
       <c r="AJ3">
-        <v>-4.891134630361905e-05</v>
+        <v>0.004402592235786927</v>
       </c>
       <c r="AK3">
-        <v>-0.0001489339764226059</v>
+        <v>0.01490444016518439</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-10.9</v>
+        <v>-11.5</v>
       </c>
       <c r="AQ3">
-        <v>0.02321100917431193</v>
+        <v>0.02321739130434783</v>
       </c>
     </row>
   </sheetData>
